--- a/data/trans_dic/PCS12_SP_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5101316177992</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6014758674114546</v>
+        <v>0.6014758674114545</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4151530785657945</v>
@@ -697,7 +697,7 @@
         <v>0.44596888842986</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5292544642824781</v>
+        <v>0.5292544642824782</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2932148731688308</v>
+        <v>0.2914577394990568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.327693106476006</v>
+        <v>0.3320661902378682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3256854279633931</v>
+        <v>0.3272573761849966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3895274078983299</v>
+        <v>0.3857759741204113</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4627103127567458</v>
+        <v>0.4625084919798924</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4988422547621755</v>
+        <v>0.4937808792026322</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.477275102861989</v>
+        <v>0.4780075467325278</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5747817674014214</v>
+        <v>0.5738058527773743</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3963403820363371</v>
+        <v>0.3956753328181297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4347248267194964</v>
+        <v>0.4338421258310194</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4210667540868386</v>
+        <v>0.4199013725896623</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5069070361323484</v>
+        <v>0.5056301203636354</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.350680808787578</v>
+        <v>0.3467451358973775</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3930461267583601</v>
+        <v>0.3953407181503031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3953855201333907</v>
+        <v>0.3938373577444848</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4673982156480252</v>
+        <v>0.4661539980151692</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5193560455074278</v>
+        <v>0.518553720417148</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5527520955675563</v>
+        <v>0.5494453564149049</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5421604066420739</v>
+        <v>0.5427721894981071</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6288420099217086</v>
+        <v>0.6261816828958947</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4359112597574517</v>
+        <v>0.4342789518934299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4768693978670428</v>
+        <v>0.4768964458196836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4695892620813065</v>
+        <v>0.4702228022026879</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5535712985753233</v>
+        <v>0.5504798728103454</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1186085464230128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1832754245353842</v>
+        <v>0.1832754245353843</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1355468546507132</v>
@@ -821,7 +821,7 @@
         <v>0.1747059393201842</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.236046893367703</v>
+        <v>0.2360468933677031</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1101096447822934</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07298983093814576</v>
+        <v>0.07318860944866397</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09384744153215978</v>
+        <v>0.09515452229117273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1044002753658975</v>
+        <v>0.1037348007408644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1675754805084609</v>
+        <v>0.1665141307262685</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1178007168118668</v>
+        <v>0.1199826858811151</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1465320195319167</v>
+        <v>0.1456268635814234</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1576287724455855</v>
+        <v>0.1579598278807209</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2188991631539816</v>
+        <v>0.220575212167468</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09950363123235481</v>
+        <v>0.09951794500158637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1242038054878004</v>
+        <v>0.1227686763519603</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1344097215779928</v>
+        <v>0.1336858390046557</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1973642137461243</v>
+        <v>0.1983641240048332</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09977850152301772</v>
+        <v>0.1013804415827752</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1238520695228916</v>
+        <v>0.1243493530101021</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.133337379307238</v>
+        <v>0.1332846964978359</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2014206550077411</v>
+        <v>0.1996577759212109</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1530739103562005</v>
+        <v>0.1543728497693901</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1836019764183104</v>
+        <v>0.1833238937372301</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1924328779237699</v>
+        <v>0.1932109330345006</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2513018949096692</v>
+        <v>0.2527986644968378</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1212102600993391</v>
+        <v>0.1215762295808317</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1466086074655759</v>
+        <v>0.1470072150616578</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1581690137964297</v>
+        <v>0.1582184306051254</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2207190032602827</v>
+        <v>0.2217815540511115</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1050205399604666</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1488333151008651</v>
+        <v>0.148833315100865</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05457077425132217</v>
+        <v>0.05316645055548005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06963589121166552</v>
+        <v>0.06949358203672887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06110221247092827</v>
+        <v>0.0618754691039695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1031589855146363</v>
+        <v>0.1022116091688507</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09526843694736568</v>
+        <v>0.0961988355988119</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06907307288392117</v>
+        <v>0.06870932451236741</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09596936253807122</v>
+        <v>0.09722097683118459</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1456886016546654</v>
+        <v>0.1464991120130003</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08053857670647471</v>
+        <v>0.08022523116709097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07677073117283843</v>
+        <v>0.07803796280272862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08271727811277144</v>
+        <v>0.08568859180756647</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1326020452377531</v>
+        <v>0.1335352280320832</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1028280887419176</v>
+        <v>0.1027573866677351</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1303008823532329</v>
+        <v>0.1280655263964304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1113378449022689</v>
+        <v>0.115018451179751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1563999233942909</v>
+        <v>0.1554634726440979</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1573823780723448</v>
+        <v>0.1579327537393075</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1254579770964258</v>
+        <v>0.125630854376699</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1557474114939212</v>
+        <v>0.1605273711634863</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1909140751308528</v>
+        <v>0.1925890924162287</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1187216869746249</v>
+        <v>0.1193028261074506</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1175283550064624</v>
+        <v>0.1173361733420504</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1245386450503369</v>
+        <v>0.1247634766815509</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1672015379678728</v>
+        <v>0.1661277630135893</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1655696839272248</v>
+        <v>0.1651960927262312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1562378925836921</v>
+        <v>0.1545977720563513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1993361530465222</v>
+        <v>0.198043383460608</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2759275658679255</v>
+        <v>0.2736821051086867</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2458787663731462</v>
+        <v>0.2457204368363484</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2900426016433772</v>
+        <v>0.2893997570957394</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2247571543648202</v>
+        <v>0.2264143865393849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2053226484422266</v>
+        <v>0.205205964932044</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2489391589218215</v>
+        <v>0.249138342904026</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1927355430840706</v>
+        <v>0.1918354838448449</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1799524106770388</v>
+        <v>0.1813034298421529</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2257922445775966</v>
+        <v>0.2262605305820735</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3061151505112808</v>
+        <v>0.3042822174211737</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2759857160196034</v>
+        <v>0.2775526868523385</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3152356378879463</v>
+        <v>0.3146236095097434</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2463754670007839</v>
+        <v>0.247142787671438</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2268342950314807</v>
+        <v>0.225514731343746</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.267789234984162</v>
+        <v>0.2674933931724238</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>302517</v>
+        <v>300704</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>319384</v>
+        <v>323646</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>245680</v>
+        <v>246866</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>223429</v>
+        <v>221277</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>608516</v>
+        <v>608251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>667350</v>
+        <v>660579</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>474726</v>
+        <v>475455</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>466419</v>
+        <v>465627</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>930145</v>
+        <v>928585</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1005275</v>
+        <v>1003234</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>736449</v>
+        <v>734410</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>702097</v>
+        <v>700329</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>361805</v>
+        <v>357745</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>383080</v>
+        <v>385316</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>298258</v>
+        <v>297090</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>268094</v>
+        <v>267381</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>683012</v>
+        <v>681957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>739470</v>
+        <v>735046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>539265</v>
+        <v>539874</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>510288</v>
+        <v>508129</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1023012</v>
+        <v>1019181</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1102732</v>
+        <v>1102794</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>821315</v>
+        <v>822423</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>766730</v>
+        <v>762448</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>123602</v>
+        <v>123939</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>184312</v>
+        <v>186879</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>216775</v>
+        <v>215393</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>372180</v>
+        <v>369822</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>187029</v>
+        <v>190493</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>257574</v>
+        <v>255983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>313413</v>
+        <v>314072</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>474009</v>
+        <v>477638</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>326480</v>
+        <v>326527</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>462257</v>
+        <v>456916</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>546333</v>
+        <v>543391</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>865716</v>
+        <v>870102</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>168966</v>
+        <v>171679</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>243240</v>
+        <v>244217</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>276860</v>
+        <v>276750</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>447349</v>
+        <v>443433</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>243031</v>
+        <v>245094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>322736</v>
+        <v>322247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>382614</v>
+        <v>384161</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>544174</v>
+        <v>547415</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>397701</v>
+        <v>398902</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>545642</v>
+        <v>547126</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>642907</v>
+        <v>643108</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>968159</v>
+        <v>972820</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30091</v>
+        <v>29316</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33507</v>
+        <v>33439</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33416</v>
+        <v>33839</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>73154</v>
+        <v>72482</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>45387</v>
+        <v>45830</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31679</v>
+        <v>31512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>52701</v>
+        <v>53388</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>106614</v>
+        <v>107207</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>82779</v>
+        <v>82457</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>72150</v>
+        <v>73341</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>90660</v>
+        <v>93917</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>191070</v>
+        <v>192414</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56700</v>
+        <v>56661</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62698</v>
+        <v>61623</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60889</v>
+        <v>62902</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110909</v>
+        <v>110244</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74979</v>
+        <v>75241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>57539</v>
+        <v>57618</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>85527</v>
+        <v>88152</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>139709</v>
+        <v>140935</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>122025</v>
+        <v>122622</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>110455</v>
+        <v>110274</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>136498</v>
+        <v>136744</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>240925</v>
+        <v>239378</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>566212</v>
+        <v>564935</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>527712</v>
+        <v>522172</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>698412</v>
+        <v>693883</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>980710</v>
+        <v>972729</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>868468</v>
+        <v>867909</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1075676</v>
+        <v>1073292</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1567459</v>
+        <v>1579017</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1418722</v>
+        <v>1417915</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1795442</v>
+        <v>1796879</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>659114</v>
+        <v>656036</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>607811</v>
+        <v>612374</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>791106</v>
+        <v>792747</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1088004</v>
+        <v>1081489</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>974809</v>
+        <v>980344</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1169109</v>
+        <v>1166839</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1718225</v>
+        <v>1723577</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1567361</v>
+        <v>1558243</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1931396</v>
+        <v>1929262</v>
       </c>
     </row>
     <row r="20">
